--- a/delta2/lib_e/eid-ransom.xlsx
+++ b/delta2/lib_e/eid-ransom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E4B15-4314-0041-9612-4E7C173E28C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2364712-46D2-A546-997B-377D67253617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38540" yWindow="-20940" windowWidth="38080" windowHeight="20800" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
+    <workbookView xWindow="2660" yWindow="-20920" windowWidth="34560" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
   <sheets>
     <sheet name="process_create" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId12"/>
-    <pivotCache cacheId="11" r:id="rId13"/>
-    <pivotCache cacheId="15" r:id="rId14"/>
-    <pivotCache cacheId="19" r:id="rId15"/>
+    <pivotCache cacheId="8" r:id="rId12"/>
+    <pivotCache cacheId="9" r:id="rId13"/>
+    <pivotCache cacheId="10" r:id="rId14"/>
+    <pivotCache cacheId="11" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9665,7 +9665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9716,7 +9716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34285,7 +34284,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -34487,7 +34486,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -34582,7 +34581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -34700,7 +34699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -35357,7 +35356,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D610" sqref="D610"/>
+      <selection pane="bottomLeft" activeCell="J323" sqref="J323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35419,7 +35418,7 @@
         <v>1222</v>
       </c>
       <c r="B2"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1"/>
@@ -35432,7 +35431,7 @@
         <v>1223</v>
       </c>
       <c r="B3"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1"/>
@@ -35445,7 +35444,7 @@
         <v>1224</v>
       </c>
       <c r="B4"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1"/>
@@ -35458,7 +35457,7 @@
         <v>1225</v>
       </c>
       <c r="B5"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1"/>
@@ -35471,7 +35470,7 @@
         <v>1226</v>
       </c>
       <c r="B6"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -35489,7 +35488,7 @@
         <v>1227</v>
       </c>
       <c r="B7"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1"/>
@@ -35504,7 +35503,7 @@
       <c r="B8" t="s">
         <v>3126</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1"/>
@@ -35517,7 +35516,7 @@
         <v>1229</v>
       </c>
       <c r="B9"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1"/>
@@ -35532,7 +35531,7 @@
       <c r="B10" t="s">
         <v>3130</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
@@ -35547,7 +35546,7 @@
       <c r="B11" t="s">
         <v>3126</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1"/>
@@ -35562,7 +35561,7 @@
       <c r="B12" t="s">
         <v>3126</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1"/>
@@ -35577,7 +35576,7 @@
       <c r="B13" t="s">
         <v>3126</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="1"/>
@@ -35592,7 +35591,7 @@
       <c r="B14" t="s">
         <v>3126</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1"/>
@@ -35607,7 +35606,7 @@
       <c r="B15" t="s">
         <v>3126</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="1"/>
@@ -35622,7 +35621,7 @@
       <c r="B16" t="s">
         <v>3126</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="1"/>
@@ -35637,7 +35636,7 @@
       <c r="B17" t="s">
         <v>3126</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="1"/>
@@ -35652,7 +35651,7 @@
       <c r="B18" t="s">
         <v>3135</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="1"/>
@@ -35808,7 +35807,7 @@
       <c r="C26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -35868,7 +35867,7 @@
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -35888,7 +35887,7 @@
       <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -35908,7 +35907,7 @@
       <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="21" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -35923,7 +35922,7 @@
         <v>1252</v>
       </c>
       <c r="B32"/>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="1"/>
@@ -35936,7 +35935,7 @@
         <v>1253</v>
       </c>
       <c r="B33"/>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="1"/>
@@ -35949,7 +35948,7 @@
         <v>1254</v>
       </c>
       <c r="B34"/>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="1"/>
@@ -35962,7 +35961,7 @@
         <v>1255</v>
       </c>
       <c r="B35"/>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E35" s="1"/>
@@ -35975,7 +35974,7 @@
         <v>1256</v>
       </c>
       <c r="B36"/>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="1"/>
@@ -35988,7 +35987,7 @@
         <v>1257</v>
       </c>
       <c r="B37"/>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E37" s="1"/>
@@ -36001,7 +36000,7 @@
         <v>1258</v>
       </c>
       <c r="B38"/>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="1"/>
@@ -36014,7 +36013,7 @@
         <v>1259</v>
       </c>
       <c r="B39"/>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="1"/>
@@ -36027,7 +36026,7 @@
         <v>1260</v>
       </c>
       <c r="B40"/>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="1"/>
@@ -36040,7 +36039,7 @@
         <v>1261</v>
       </c>
       <c r="B41"/>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="1"/>
@@ -36053,7 +36052,7 @@
         <v>1262</v>
       </c>
       <c r="B42"/>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="1"/>
@@ -36066,7 +36065,7 @@
         <v>1263</v>
       </c>
       <c r="B43"/>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1"/>
@@ -36079,7 +36078,7 @@
         <v>1264</v>
       </c>
       <c r="B44"/>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="1"/>
@@ -36185,7 +36184,7 @@
       <c r="B52" t="s">
         <v>3140</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="1"/>
@@ -36252,7 +36251,7 @@
       <c r="B57" t="s">
         <v>3140</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E57" s="1"/>
@@ -36375,7 +36374,7 @@
         <v>140</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36388,7 +36387,7 @@
         <v>141</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36401,7 +36400,7 @@
         <v>142</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="L68" s="1" t="s">
+      <c r="L68" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36414,7 +36413,7 @@
         <v>143</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="L69" s="1" t="s">
+      <c r="L69" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36429,7 +36428,7 @@
         <v>144</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36449,7 +36448,7 @@
       <c r="E71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36469,7 +36468,7 @@
       <c r="E72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36489,7 +36488,7 @@
       <c r="E73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36509,7 +36508,7 @@
       <c r="E74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36529,7 +36528,7 @@
       <c r="E75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36549,7 +36548,7 @@
       <c r="E76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36569,7 +36568,7 @@
       <c r="E77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36589,7 +36588,7 @@
       <c r="E78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36609,7 +36608,7 @@
       <c r="E79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36629,7 +36628,7 @@
       <c r="E80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L80" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36649,7 +36648,7 @@
       <c r="E81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36664,7 +36663,7 @@
       <c r="E82" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36679,7 +36678,7 @@
       <c r="E83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L83" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36694,7 +36693,7 @@
         <v>156</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="L84" s="1" t="s">
+      <c r="L84" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36711,7 +36710,7 @@
       <c r="E85" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36728,7 +36727,7 @@
       <c r="E86" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="L86" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36745,7 +36744,7 @@
       <c r="E87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L87" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36762,7 +36761,7 @@
       <c r="E88" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="L88" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36777,7 +36776,7 @@
       <c r="E89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L89" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36792,7 +36791,7 @@
         <v>167</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="L90" s="1" t="s">
+      <c r="L90" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36807,7 +36806,7 @@
       <c r="E91" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L91" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36820,7 +36819,7 @@
         <v>169</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="L92" s="1" t="s">
+      <c r="L92" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36833,7 +36832,7 @@
         <v>212</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="L93" s="1" t="s">
+      <c r="L93" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36853,7 +36852,7 @@
       <c r="E94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="L94" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36868,7 +36867,7 @@
       <c r="E95" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="L95" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36883,7 +36882,7 @@
       <c r="E96" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="L96" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36898,7 +36897,7 @@
       <c r="E97" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="L97" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36913,7 +36912,7 @@
       <c r="E98" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="L98" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36928,7 +36927,7 @@
       <c r="E99" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="L99" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36943,7 +36942,7 @@
       <c r="E100" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="L100" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36958,7 +36957,7 @@
       <c r="E101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="L101" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36973,7 +36972,7 @@
       <c r="E102" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="L102" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36988,7 +36987,7 @@
       <c r="E103" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="L103" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37005,7 +37004,7 @@
       <c r="E104" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="L104" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37020,7 +37019,7 @@
       <c r="E105" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="L105" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37035,7 +37034,7 @@
       <c r="E106" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="L106" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37052,7 +37051,7 @@
       <c r="E107" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="L107" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37070,7 +37069,7 @@
       <c r="E108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="L108" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37088,7 +37087,7 @@
       <c r="E109" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="L109" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37108,7 +37107,7 @@
       <c r="E110" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="L110" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37128,7 +37127,7 @@
       <c r="E111" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L111" s="1" t="s">
+      <c r="L111" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37148,7 +37147,7 @@
       <c r="E112" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L112" s="1" t="s">
+      <c r="L112" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37168,7 +37167,7 @@
       <c r="E113" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="L113" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37188,7 +37187,7 @@
       <c r="E114" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="L114" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37208,7 +37207,7 @@
       <c r="E115" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="L115" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37228,7 +37227,7 @@
       <c r="E116" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="L116" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37248,7 +37247,7 @@
       <c r="E117" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="L117" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37268,7 +37267,7 @@
       <c r="E118" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="L118" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37288,7 +37287,7 @@
       <c r="E119" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L119" s="1" t="s">
+      <c r="L119" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37308,7 +37307,7 @@
       <c r="E120" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L120" s="1" t="s">
+      <c r="L120" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37328,7 +37327,7 @@
       <c r="E121" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L121" s="1" t="s">
+      <c r="L121" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37348,7 +37347,7 @@
       <c r="E122" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L122" s="1" t="s">
+      <c r="L122" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37366,7 +37365,7 @@
       <c r="E123" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="L123" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37384,7 +37383,7 @@
       <c r="E124" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L124" s="1" t="s">
+      <c r="L124" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37404,7 +37403,7 @@
       <c r="E125" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="L125" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37422,7 +37421,7 @@
       <c r="E126" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L126" s="1" t="s">
+      <c r="L126" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37440,7 +37439,7 @@
       <c r="E127" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="L127" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37460,7 +37459,7 @@
       <c r="E128" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L128" s="1" t="s">
+      <c r="L128" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37475,7 +37474,7 @@
       <c r="E129" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="L129" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37490,7 +37489,7 @@
       <c r="E130" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="L130" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37505,7 +37504,7 @@
       <c r="E131" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="L131" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37528,7 +37527,7 @@
       <c r="G132" t="s">
         <v>219</v>
       </c>
-      <c r="L132" s="1" t="s">
+      <c r="L132" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37547,7 +37546,7 @@
       <c r="H133" t="s">
         <v>221</v>
       </c>
-      <c r="L133" s="1" t="s">
+      <c r="L133" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37563,7 +37562,7 @@
         <v>224</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="L134" s="1" t="s">
+      <c r="L134" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37981,7 +37980,7 @@
         <v>292</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="L163" s="1" t="s">
+      <c r="L163" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -37994,7 +37993,7 @@
         <v>293</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="L164" s="1" t="s">
+      <c r="L164" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38009,7 +38008,7 @@
       <c r="E165" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L165" s="1" t="s">
+      <c r="L165" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38022,7 +38021,7 @@
         <v>297</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="L166" s="1" t="s">
+      <c r="L166" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38037,7 +38036,7 @@
         <v>298</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="L167" s="1" t="s">
+      <c r="L167" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38052,7 +38051,7 @@
         <v>304</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="L168" s="1" t="s">
+      <c r="L168" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38067,7 +38066,7 @@
         <v>305</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="L169" s="1" t="s">
+      <c r="L169" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38082,7 +38081,7 @@
         <v>306</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="L170" s="1" t="s">
+      <c r="L170" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38097,7 +38096,7 @@
         <v>307</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="L171" s="1" t="s">
+      <c r="L171" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38112,7 +38111,7 @@
         <v>308</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="L172" s="1" t="s">
+      <c r="L172" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38127,7 +38126,7 @@
         <v>309</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="L173" s="1" t="s">
+      <c r="L173" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38142,7 +38141,7 @@
         <v>310</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="L174" s="1" t="s">
+      <c r="L174" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38157,7 +38156,7 @@
         <v>311</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="L175" s="1" t="s">
+      <c r="L175" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38170,7 +38169,7 @@
         <v>313</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="L176" s="1" t="s">
+      <c r="L176" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38185,7 +38184,7 @@
         <v>314</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="L177" s="1" t="s">
+      <c r="L177" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38200,7 +38199,7 @@
         <v>315</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="L178" s="1" t="s">
+      <c r="L178" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38215,7 +38214,7 @@
         <v>316</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="L179" s="1" t="s">
+      <c r="L179" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38230,7 +38229,7 @@
         <v>317</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="L180" s="1" t="s">
+      <c r="L180" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38310,7 +38309,7 @@
         <v>324</v>
       </c>
       <c r="E186" s="1"/>
-      <c r="L186" s="1" t="s">
+      <c r="L186" s="21" t="s">
         <v>287</v>
       </c>
     </row>
@@ -38629,7 +38628,7 @@
         <v>376</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="L209" s="1" t="s">
+      <c r="L209" s="21" t="s">
         <v>352</v>
       </c>
     </row>
@@ -39291,7 +39290,7 @@
         <v>450</v>
       </c>
       <c r="E257" s="1"/>
-      <c r="L257" s="1" t="s">
+      <c r="L257" s="21" t="s">
         <v>424</v>
       </c>
     </row>
@@ -39344,7 +39343,7 @@
         <v>454</v>
       </c>
       <c r="E261" s="1"/>
-      <c r="L261" s="1" t="s">
+      <c r="L261" s="21" t="s">
         <v>424</v>
       </c>
     </row>
@@ -39356,7 +39355,7 @@
         <v>455</v>
       </c>
       <c r="E262" s="1"/>
-      <c r="L262" s="1" t="s">
+      <c r="L262" s="21" t="s">
         <v>424</v>
       </c>
     </row>
@@ -39368,7 +39367,7 @@
         <v>456</v>
       </c>
       <c r="E263" s="1"/>
-      <c r="L263" s="1" t="s">
+      <c r="L263" s="21" t="s">
         <v>424</v>
       </c>
     </row>
@@ -39440,7 +39439,7 @@
         <v>459</v>
       </c>
       <c r="E268" s="1"/>
-      <c r="L268" s="1" t="s">
+      <c r="L268" s="21" t="s">
         <v>424</v>
       </c>
     </row>
@@ -39878,7 +39877,7 @@
         <v>491</v>
       </c>
       <c r="E299" s="1"/>
-      <c r="L299" s="1" t="s">
+      <c r="L299" s="21" t="s">
         <v>424</v>
       </c>
     </row>
@@ -40147,7 +40146,7 @@
         <v>505</v>
       </c>
       <c r="E318" s="1"/>
-      <c r="L318" s="21" t="s">
+      <c r="L318" s="1" t="s">
         <v>509</v>
       </c>
     </row>
@@ -40175,7 +40174,7 @@
         <v>507</v>
       </c>
       <c r="E320" s="1"/>
-      <c r="L320" s="21" t="s">
+      <c r="L320" s="1" t="s">
         <v>509</v>
       </c>
     </row>
@@ -40360,7 +40359,7 @@
         <v>494</v>
       </c>
       <c r="E333" s="1"/>
-      <c r="L333" s="21" t="s">
+      <c r="L333" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -40508,7 +40507,7 @@
         <v>524</v>
       </c>
       <c r="E343" s="1"/>
-      <c r="L343" s="21" t="s">
+      <c r="L343" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -41725,7 +41724,7 @@
         <v>494</v>
       </c>
       <c r="E423" s="1"/>
-      <c r="L423" s="21" t="s">
+      <c r="L423" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -41766,7 +41765,7 @@
         <v>592</v>
       </c>
       <c r="E426" s="1"/>
-      <c r="L426" s="21" t="s">
+      <c r="L426" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -41820,7 +41819,7 @@
         <v>596</v>
       </c>
       <c r="E430" s="1"/>
-      <c r="L430" s="21" t="s">
+      <c r="L430" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -41835,7 +41834,7 @@
         <v>608</v>
       </c>
       <c r="E431" s="1"/>
-      <c r="L431" s="21" t="s">
+      <c r="L431" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -41864,7 +41863,7 @@
       <c r="G433" t="s">
         <v>611</v>
       </c>
-      <c r="L433" s="21" t="s">
+      <c r="L433" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -41892,7 +41891,7 @@
         <v>615</v>
       </c>
       <c r="E435" s="1"/>
-      <c r="L435" s="21" t="s">
+      <c r="L435" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -41905,7 +41904,7 @@
         <v>616</v>
       </c>
       <c r="E436" s="1"/>
-      <c r="L436" s="21" t="s">
+      <c r="L436" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -41962,7 +41961,7 @@
         <v>620</v>
       </c>
       <c r="E440" s="1"/>
-      <c r="L440" s="21" t="s">
+      <c r="L440" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -41975,7 +41974,7 @@
         <v>621</v>
       </c>
       <c r="E441" s="1"/>
-      <c r="L441" s="21" t="s">
+      <c r="L441" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -41988,7 +41987,7 @@
         <v>622</v>
       </c>
       <c r="E442" s="1"/>
-      <c r="L442" s="21" t="s">
+      <c r="L442" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42000,7 +41999,7 @@
         <v>623</v>
       </c>
       <c r="E443" s="1"/>
-      <c r="L443" s="21" t="s">
+      <c r="L443" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42013,7 +42012,7 @@
         <v>624</v>
       </c>
       <c r="E444" s="1"/>
-      <c r="L444" s="21" t="s">
+      <c r="L444" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42026,7 +42025,7 @@
         <v>625</v>
       </c>
       <c r="E445" s="1"/>
-      <c r="L445" s="21" t="s">
+      <c r="L445" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42039,7 +42038,7 @@
         <v>626</v>
       </c>
       <c r="E446" s="1"/>
-      <c r="L446" s="21" t="s">
+      <c r="L446" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42052,7 +42051,7 @@
         <v>627</v>
       </c>
       <c r="E447" s="1"/>
-      <c r="L447" s="21" t="s">
+      <c r="L447" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42065,7 +42064,7 @@
         <v>628</v>
       </c>
       <c r="E448" s="1"/>
-      <c r="L448" s="21" t="s">
+      <c r="L448" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42078,7 +42077,7 @@
         <v>629</v>
       </c>
       <c r="E449" s="1"/>
-      <c r="L449" s="21" t="s">
+      <c r="L449" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42091,7 +42090,7 @@
         <v>630</v>
       </c>
       <c r="E450" s="1"/>
-      <c r="L450" s="21" t="s">
+      <c r="L450" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42104,7 +42103,7 @@
         <v>631</v>
       </c>
       <c r="E451" s="1"/>
-      <c r="L451" s="21" t="s">
+      <c r="L451" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42117,7 +42116,7 @@
         <v>632</v>
       </c>
       <c r="E452" s="1"/>
-      <c r="L452" s="21" t="s">
+      <c r="L452" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42130,7 +42129,7 @@
         <v>633</v>
       </c>
       <c r="E453" s="1"/>
-      <c r="L453" s="21" t="s">
+      <c r="L453" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42178,7 +42177,7 @@
         <v>636</v>
       </c>
       <c r="E456" s="1"/>
-      <c r="L456" s="21" t="s">
+      <c r="L456" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42190,7 +42189,7 @@
         <v>637</v>
       </c>
       <c r="E457" s="1"/>
-      <c r="L457" s="21" t="s">
+      <c r="L457" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42233,7 +42232,7 @@
         <v>640</v>
       </c>
       <c r="E460" s="1"/>
-      <c r="L460" s="21" t="s">
+      <c r="L460" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42246,7 +42245,7 @@
         <v>641</v>
       </c>
       <c r="E461" s="1"/>
-      <c r="L461" s="21" t="s">
+      <c r="L461" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42262,7 +42261,7 @@
         <v>642</v>
       </c>
       <c r="E462" s="1"/>
-      <c r="L462" s="21" t="s">
+      <c r="L462" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42298,7 +42297,7 @@
         <v>644</v>
       </c>
       <c r="E464" s="1"/>
-      <c r="L464" s="21" t="s">
+      <c r="L464" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42331,7 +42330,7 @@
         <v>646</v>
       </c>
       <c r="E466" s="1"/>
-      <c r="L466" s="21" t="s">
+      <c r="L466" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42349,7 +42348,7 @@
         <v>647</v>
       </c>
       <c r="E467" s="1"/>
-      <c r="L467" s="21" t="s">
+      <c r="L467" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42362,7 +42361,7 @@
         <v>442</v>
       </c>
       <c r="E468" s="1"/>
-      <c r="L468" s="21" t="s">
+      <c r="L468" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42375,7 +42374,7 @@
         <v>648</v>
       </c>
       <c r="E469" s="1"/>
-      <c r="L469" s="21" t="s">
+      <c r="L469" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42391,7 +42390,7 @@
         <v>649</v>
       </c>
       <c r="E470" s="1"/>
-      <c r="L470" s="21" t="s">
+      <c r="L470" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42440,7 +42439,7 @@
         <v>652</v>
       </c>
       <c r="E473" s="1"/>
-      <c r="L473" s="21" t="s">
+      <c r="L473" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42453,7 +42452,7 @@
         <v>653</v>
       </c>
       <c r="E474" s="1"/>
-      <c r="L474" s="21" t="s">
+      <c r="L474" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42487,7 +42486,7 @@
         <v>655</v>
       </c>
       <c r="E476" s="1"/>
-      <c r="L476" s="21" t="s">
+      <c r="L476" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42500,7 +42499,7 @@
         <v>656</v>
       </c>
       <c r="E477" s="1"/>
-      <c r="L477" s="21" t="s">
+      <c r="L477" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42516,7 +42515,7 @@
         <v>657</v>
       </c>
       <c r="E478" s="1"/>
-      <c r="L478" s="21" t="s">
+      <c r="L478" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42532,7 +42531,7 @@
         <v>658</v>
       </c>
       <c r="E479" s="1"/>
-      <c r="L479" s="21" t="s">
+      <c r="L479" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42548,7 +42547,7 @@
         <v>659</v>
       </c>
       <c r="E480" s="1"/>
-      <c r="L480" s="21" t="s">
+      <c r="L480" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42564,7 +42563,7 @@
         <v>660</v>
       </c>
       <c r="E481" s="1"/>
-      <c r="L481" s="21" t="s">
+      <c r="L481" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42580,7 +42579,7 @@
         <v>661</v>
       </c>
       <c r="E482" s="1"/>
-      <c r="L482" s="21" t="s">
+      <c r="L482" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42593,7 +42592,7 @@
         <v>662</v>
       </c>
       <c r="E483" s="1"/>
-      <c r="L483" s="21" t="s">
+      <c r="L483" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42606,7 +42605,7 @@
         <v>663</v>
       </c>
       <c r="E484" s="1"/>
-      <c r="L484" s="21" t="s">
+      <c r="L484" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42621,7 +42620,7 @@
         <v>664</v>
       </c>
       <c r="E485" s="1"/>
-      <c r="L485" s="21" t="s">
+      <c r="L485" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42636,7 +42635,7 @@
         <v>491</v>
       </c>
       <c r="E486" s="1"/>
-      <c r="L486" s="21" t="s">
+      <c r="L486" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42649,7 +42648,7 @@
         <v>665</v>
       </c>
       <c r="E487" s="1"/>
-      <c r="L487" s="21" t="s">
+      <c r="L487" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42662,7 +42661,7 @@
         <v>449</v>
       </c>
       <c r="E488" s="1"/>
-      <c r="L488" s="21" t="s">
+      <c r="L488" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42675,7 +42674,7 @@
         <v>666</v>
       </c>
       <c r="E489" s="1"/>
-      <c r="L489" s="21" t="s">
+      <c r="L489" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42688,7 +42687,7 @@
         <v>667</v>
       </c>
       <c r="E490" s="1"/>
-      <c r="L490" s="21" t="s">
+      <c r="L490" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42701,7 +42700,7 @@
         <v>668</v>
       </c>
       <c r="E491" s="1"/>
-      <c r="L491" s="21" t="s">
+      <c r="L491" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -42714,7 +42713,7 @@
         <v>677</v>
       </c>
       <c r="E492" s="1"/>
-      <c r="L492" s="21" t="s">
+      <c r="L492" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42727,7 +42726,7 @@
         <v>678</v>
       </c>
       <c r="E493" s="1"/>
-      <c r="L493" s="21" t="s">
+      <c r="L493" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42740,7 +42739,7 @@
         <v>679</v>
       </c>
       <c r="E494" s="1"/>
-      <c r="L494" s="21" t="s">
+      <c r="L494" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42753,7 +42752,7 @@
         <v>680</v>
       </c>
       <c r="E495" s="1"/>
-      <c r="L495" s="21" t="s">
+      <c r="L495" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42766,7 +42765,7 @@
         <v>681</v>
       </c>
       <c r="E496" s="1"/>
-      <c r="L496" s="21" t="s">
+      <c r="L496" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42824,7 +42823,7 @@
         <v>684</v>
       </c>
       <c r="E500" s="1"/>
-      <c r="L500" s="21" t="s">
+      <c r="L500" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42837,7 +42836,7 @@
         <v>534</v>
       </c>
       <c r="E501" s="1"/>
-      <c r="L501" s="21" t="s">
+      <c r="L501" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42850,7 +42849,7 @@
         <v>685</v>
       </c>
       <c r="E502" s="1"/>
-      <c r="L502" s="21" t="s">
+      <c r="L502" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42863,7 +42862,7 @@
         <v>686</v>
       </c>
       <c r="E503" s="1"/>
-      <c r="L503" s="21" t="s">
+      <c r="L503" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42891,7 +42890,7 @@
         <v>688</v>
       </c>
       <c r="E505" s="1"/>
-      <c r="L505" s="21" t="s">
+      <c r="L505" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42904,7 +42903,7 @@
         <v>538</v>
       </c>
       <c r="E506" s="1"/>
-      <c r="L506" s="21" t="s">
+      <c r="L506" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42917,7 +42916,7 @@
         <v>689</v>
       </c>
       <c r="E507" s="1"/>
-      <c r="L507" s="21" t="s">
+      <c r="L507" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42929,7 +42928,7 @@
         <v>690</v>
       </c>
       <c r="E508" s="1"/>
-      <c r="L508" s="21" t="s">
+      <c r="L508" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42942,7 +42941,7 @@
         <v>691</v>
       </c>
       <c r="E509" s="1"/>
-      <c r="L509" s="21" t="s">
+      <c r="L509" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42954,7 +42953,7 @@
         <v>692</v>
       </c>
       <c r="E510" s="1"/>
-      <c r="L510" s="21" t="s">
+      <c r="L510" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42967,7 +42966,7 @@
         <v>591</v>
       </c>
       <c r="E511" s="1"/>
-      <c r="L511" s="21" t="s">
+      <c r="L511" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42982,7 +42981,7 @@
         <v>693</v>
       </c>
       <c r="E512" s="1"/>
-      <c r="L512" s="21" t="s">
+      <c r="L512" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -42995,7 +42994,7 @@
         <v>694</v>
       </c>
       <c r="E513" s="1"/>
-      <c r="L513" s="21" t="s">
+      <c r="L513" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -43010,7 +43009,7 @@
         <v>695</v>
       </c>
       <c r="E514" s="1"/>
-      <c r="L514" s="21" t="s">
+      <c r="L514" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -43023,7 +43022,7 @@
         <v>698</v>
       </c>
       <c r="E515" s="1"/>
-      <c r="L515" s="21" t="s">
+      <c r="L515" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -43036,7 +43035,7 @@
         <v>677</v>
       </c>
       <c r="E516" s="1"/>
-      <c r="L516" s="21" t="s">
+      <c r="L516" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -43094,7 +43093,7 @@
         <v>702</v>
       </c>
       <c r="E520" s="1"/>
-      <c r="L520" s="21" t="s">
+      <c r="L520" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -43107,7 +43106,7 @@
         <v>703</v>
       </c>
       <c r="E521" s="1"/>
-      <c r="L521" s="21" t="s">
+      <c r="L521" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -43195,7 +43194,7 @@
         <v>18</v>
       </c>
       <c r="E527" s="1"/>
-      <c r="L527" s="21" t="s">
+      <c r="L527" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -43238,7 +43237,7 @@
         <v>708</v>
       </c>
       <c r="E530" s="1"/>
-      <c r="L530" s="21" t="s">
+      <c r="L530" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -43281,7 +43280,7 @@
         <v>710</v>
       </c>
       <c r="E533" s="1"/>
-      <c r="L533" s="21" t="s">
+      <c r="L533" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -43414,7 +43413,7 @@
         <v>715</v>
       </c>
       <c r="E542" s="1"/>
-      <c r="L542" s="21" t="s">
+      <c r="L542" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -44540,7 +44539,7 @@
       <c r="A623" s="1" t="s">
         <v>1843</v>
       </c>
-      <c r="D623" s="1" t="s">
+      <c r="D623" s="21" t="s">
         <v>811</v>
       </c>
       <c r="E623" s="1"/>
@@ -44567,7 +44566,7 @@
       <c r="A625" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="D625" s="1" t="s">
+      <c r="D625" s="21" t="s">
         <v>813</v>
       </c>
       <c r="E625" s="1"/>
@@ -44579,7 +44578,7 @@
       <c r="A626" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="D626" s="1" t="s">
+      <c r="D626" s="21" t="s">
         <v>814</v>
       </c>
       <c r="E626" s="1"/>
@@ -44621,7 +44620,7 @@
       <c r="A629" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="D629" s="1" t="s">
+      <c r="D629" s="21" t="s">
         <v>817</v>
       </c>
       <c r="E629" s="1"/>
@@ -44678,7 +44677,7 @@
       <c r="A633" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="D633" s="1" t="s">
+      <c r="D633" s="21" t="s">
         <v>820</v>
       </c>
       <c r="E633" s="1"/>
@@ -44706,7 +44705,7 @@
         <v>1855</v>
       </c>
       <c r="B635"/>
-      <c r="D635" s="1" t="s">
+      <c r="D635" s="21" t="s">
         <v>822</v>
       </c>
       <c r="E635" s="1"/>
@@ -44719,7 +44718,7 @@
         <v>1856</v>
       </c>
       <c r="B636"/>
-      <c r="D636" s="1" t="s">
+      <c r="D636" s="21" t="s">
         <v>823</v>
       </c>
       <c r="E636" s="1"/>
@@ -44777,7 +44776,7 @@
         <v>1860</v>
       </c>
       <c r="B640"/>
-      <c r="D640" s="1" t="s">
+      <c r="D640" s="21" t="s">
         <v>827</v>
       </c>
       <c r="E640" s="1"/>
@@ -44790,7 +44789,7 @@
         <v>1861</v>
       </c>
       <c r="B641"/>
-      <c r="D641" s="1" t="s">
+      <c r="D641" s="21" t="s">
         <v>828</v>
       </c>
       <c r="E641" s="1"/>
@@ -44803,7 +44802,7 @@
         <v>1862</v>
       </c>
       <c r="B642"/>
-      <c r="D642" s="1" t="s">
+      <c r="D642" s="21" t="s">
         <v>829</v>
       </c>
       <c r="E642" s="1"/>
@@ -44816,7 +44815,7 @@
         <v>1863</v>
       </c>
       <c r="B643"/>
-      <c r="D643" s="1" t="s">
+      <c r="D643" s="21" t="s">
         <v>830</v>
       </c>
       <c r="E643" s="1"/>
@@ -44829,7 +44828,7 @@
         <v>1864</v>
       </c>
       <c r="B644"/>
-      <c r="D644" s="1" t="s">
+      <c r="D644" s="21" t="s">
         <v>831</v>
       </c>
       <c r="E644" s="1"/>
@@ -44894,7 +44893,7 @@
         <v>1869</v>
       </c>
       <c r="B649"/>
-      <c r="D649" s="1" t="s">
+      <c r="D649" s="21" t="s">
         <v>836</v>
       </c>
       <c r="E649" s="1"/>
@@ -45195,7 +45194,7 @@
         <v>1892</v>
       </c>
       <c r="B672"/>
-      <c r="D672" s="1" t="s">
+      <c r="D672" s="21" t="s">
         <v>859</v>
       </c>
       <c r="E672" s="1"/>
@@ -45208,7 +45207,7 @@
         <v>1893</v>
       </c>
       <c r="B673"/>
-      <c r="D673" s="1" t="s">
+      <c r="D673" s="21" t="s">
         <v>859</v>
       </c>
       <c r="E673" s="1"/>
@@ -45221,7 +45220,7 @@
         <v>1894</v>
       </c>
       <c r="B674"/>
-      <c r="D674" s="1" t="s">
+      <c r="D674" s="21" t="s">
         <v>860</v>
       </c>
       <c r="E674" s="1"/>
@@ -45234,7 +45233,7 @@
         <v>1895</v>
       </c>
       <c r="B675"/>
-      <c r="D675" s="1" t="s">
+      <c r="D675" s="21" t="s">
         <v>861</v>
       </c>
       <c r="E675" s="1"/>
@@ -45247,7 +45246,7 @@
         <v>1896</v>
       </c>
       <c r="B676"/>
-      <c r="D676" s="1" t="s">
+      <c r="D676" s="21" t="s">
         <v>840</v>
       </c>
       <c r="E676" s="1"/>
@@ -45260,7 +45259,7 @@
         <v>1897</v>
       </c>
       <c r="B677"/>
-      <c r="D677" s="1" t="s">
+      <c r="D677" s="21" t="s">
         <v>862</v>
       </c>
       <c r="E677" s="1"/>
@@ -45273,7 +45272,7 @@
         <v>1898</v>
       </c>
       <c r="B678"/>
-      <c r="D678" s="1" t="s">
+      <c r="D678" s="21" t="s">
         <v>863</v>
       </c>
       <c r="E678" s="1"/>
@@ -45286,7 +45285,7 @@
         <v>1899</v>
       </c>
       <c r="B679"/>
-      <c r="D679" s="1" t="s">
+      <c r="D679" s="21" t="s">
         <v>864</v>
       </c>
       <c r="E679" s="1"/>
@@ -45299,7 +45298,7 @@
         <v>1900</v>
       </c>
       <c r="B680"/>
-      <c r="D680" s="1" t="s">
+      <c r="D680" s="21" t="s">
         <v>865</v>
       </c>
       <c r="E680" s="1"/>
@@ -45312,7 +45311,7 @@
         <v>1901</v>
       </c>
       <c r="B681"/>
-      <c r="D681" s="1" t="s">
+      <c r="D681" s="21" t="s">
         <v>866</v>
       </c>
       <c r="E681" s="1"/>
@@ -45325,7 +45324,7 @@
         <v>1902</v>
       </c>
       <c r="B682"/>
-      <c r="D682" s="1" t="s">
+      <c r="D682" s="21" t="s">
         <v>867</v>
       </c>
       <c r="E682" s="1"/>
@@ -45338,7 +45337,7 @@
         <v>1903</v>
       </c>
       <c r="B683"/>
-      <c r="D683" s="1" t="s">
+      <c r="D683" s="21" t="s">
         <v>868</v>
       </c>
       <c r="E683" s="1"/>
@@ -45351,7 +45350,7 @@
         <v>1904</v>
       </c>
       <c r="B684"/>
-      <c r="D684" s="1" t="s">
+      <c r="D684" s="21" t="s">
         <v>869</v>
       </c>
       <c r="E684" s="1"/>
@@ -45364,7 +45363,7 @@
         <v>1905</v>
       </c>
       <c r="B685"/>
-      <c r="D685" s="1" t="s">
+      <c r="D685" s="21" t="s">
         <v>870</v>
       </c>
       <c r="E685" s="1"/>
@@ -45377,7 +45376,7 @@
         <v>1906</v>
       </c>
       <c r="B686"/>
-      <c r="D686" s="1" t="s">
+      <c r="D686" s="21" t="s">
         <v>871</v>
       </c>
       <c r="E686" s="1"/>
@@ -45390,7 +45389,7 @@
         <v>1907</v>
       </c>
       <c r="B687"/>
-      <c r="D687" s="1" t="s">
+      <c r="D687" s="21" t="s">
         <v>872</v>
       </c>
       <c r="E687" s="1"/>
@@ -45403,7 +45402,7 @@
         <v>1908</v>
       </c>
       <c r="B688"/>
-      <c r="D688" s="1" t="s">
+      <c r="D688" s="21" t="s">
         <v>873</v>
       </c>
       <c r="E688" s="1"/>
@@ -45416,7 +45415,7 @@
         <v>1909</v>
       </c>
       <c r="B689"/>
-      <c r="D689" s="1" t="s">
+      <c r="D689" s="21" t="s">
         <v>874</v>
       </c>
       <c r="E689" s="1"/>
@@ -45843,7 +45842,7 @@
         <v>1940</v>
       </c>
       <c r="B720"/>
-      <c r="D720" s="21" t="s">
+      <c r="D720" s="1" t="s">
         <v>897</v>
       </c>
       <c r="E720" s="1"/>
@@ -45856,7 +45855,7 @@
         <v>1941</v>
       </c>
       <c r="B721"/>
-      <c r="D721" s="21" t="s">
+      <c r="D721" s="1" t="s">
         <v>898</v>
       </c>
       <c r="E721" s="1"/>
@@ -45869,7 +45868,7 @@
         <v>1942</v>
       </c>
       <c r="B722"/>
-      <c r="D722" s="21" t="s">
+      <c r="D722" s="1" t="s">
         <v>899</v>
       </c>
       <c r="E722" s="1"/>
@@ -45882,7 +45881,7 @@
         <v>1943</v>
       </c>
       <c r="B723"/>
-      <c r="D723" s="21" t="s">
+      <c r="D723" s="1" t="s">
         <v>900</v>
       </c>
       <c r="E723" s="1"/>
@@ -45895,7 +45894,7 @@
         <v>1944</v>
       </c>
       <c r="B724"/>
-      <c r="D724" s="21" t="s">
+      <c r="D724" s="1" t="s">
         <v>901</v>
       </c>
       <c r="E724" s="1"/>
@@ -45908,7 +45907,7 @@
         <v>1945</v>
       </c>
       <c r="B725"/>
-      <c r="D725" s="21" t="s">
+      <c r="D725" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E725" s="1"/>
@@ -45921,7 +45920,7 @@
         <v>1946</v>
       </c>
       <c r="B726"/>
-      <c r="D726" s="21" t="s">
+      <c r="D726" s="1" t="s">
         <v>903</v>
       </c>
       <c r="E726" s="1"/>
@@ -45934,7 +45933,7 @@
         <v>1947</v>
       </c>
       <c r="B727"/>
-      <c r="D727" s="21" t="s">
+      <c r="D727" s="1" t="s">
         <v>904</v>
       </c>
       <c r="E727" s="1"/>
@@ -45947,7 +45946,7 @@
         <v>1948</v>
       </c>
       <c r="B728"/>
-      <c r="D728" s="21" t="s">
+      <c r="D728" s="1" t="s">
         <v>905</v>
       </c>
       <c r="E728" s="1"/>
@@ -45960,7 +45959,7 @@
         <v>1949</v>
       </c>
       <c r="B729"/>
-      <c r="D729" s="21" t="s">
+      <c r="D729" s="1" t="s">
         <v>906</v>
       </c>
       <c r="E729" s="1"/>
@@ -45973,7 +45972,7 @@
         <v>1950</v>
       </c>
       <c r="B730"/>
-      <c r="D730" s="21" t="s">
+      <c r="D730" s="1" t="s">
         <v>907</v>
       </c>
       <c r="E730" s="1"/>
@@ -45986,7 +45985,7 @@
         <v>1951</v>
       </c>
       <c r="B731"/>
-      <c r="D731" s="21" t="s">
+      <c r="D731" s="1" t="s">
         <v>908</v>
       </c>
       <c r="E731" s="1"/>
@@ -45999,7 +45998,7 @@
         <v>1952</v>
       </c>
       <c r="B732"/>
-      <c r="D732" s="21" t="s">
+      <c r="D732" s="1" t="s">
         <v>909</v>
       </c>
       <c r="E732" s="1"/>
@@ -46102,7 +46101,7 @@
         <v>1959</v>
       </c>
       <c r="B739"/>
-      <c r="D739" s="21" t="s">
+      <c r="D739" s="1" t="s">
         <v>916</v>
       </c>
       <c r="E739" s="1"/>
@@ -46115,7 +46114,7 @@
         <v>1960</v>
       </c>
       <c r="B740"/>
-      <c r="D740" s="21" t="s">
+      <c r="D740" s="1" t="s">
         <v>917</v>
       </c>
       <c r="E740" s="1"/>
@@ -46128,7 +46127,7 @@
         <v>1961</v>
       </c>
       <c r="B741"/>
-      <c r="D741" s="21" t="s">
+      <c r="D741" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E741" s="1"/>
@@ -46141,7 +46140,7 @@
         <v>1962</v>
       </c>
       <c r="B742"/>
-      <c r="D742" s="21" t="s">
+      <c r="D742" s="1" t="s">
         <v>919</v>
       </c>
       <c r="E742" s="1"/>
@@ -46154,7 +46153,7 @@
         <v>1963</v>
       </c>
       <c r="B743"/>
-      <c r="D743" s="21" t="s">
+      <c r="D743" s="1" t="s">
         <v>920</v>
       </c>
       <c r="E743" s="1"/>
@@ -46206,7 +46205,7 @@
         <v>1967</v>
       </c>
       <c r="B747"/>
-      <c r="D747" s="21" t="s">
+      <c r="D747" s="1" t="s">
         <v>924</v>
       </c>
       <c r="E747" s="1"/>
@@ -46219,7 +46218,7 @@
         <v>1968</v>
       </c>
       <c r="B748"/>
-      <c r="D748" s="21" t="s">
+      <c r="D748" s="1" t="s">
         <v>925</v>
       </c>
       <c r="E748" s="1"/>
@@ -46232,7 +46231,7 @@
         <v>1969</v>
       </c>
       <c r="B749"/>
-      <c r="D749" s="21" t="s">
+      <c r="D749" s="1" t="s">
         <v>926</v>
       </c>
       <c r="E749" s="1"/>
@@ -46245,7 +46244,7 @@
         <v>1970</v>
       </c>
       <c r="B750"/>
-      <c r="D750" s="21" t="s">
+      <c r="D750" s="1" t="s">
         <v>927</v>
       </c>
       <c r="E750" s="1"/>
@@ -46258,7 +46257,7 @@
         <v>1971</v>
       </c>
       <c r="B751"/>
-      <c r="D751" s="21" t="s">
+      <c r="D751" s="1" t="s">
         <v>928</v>
       </c>
       <c r="E751" s="1"/>
@@ -46271,7 +46270,7 @@
         <v>1972</v>
       </c>
       <c r="B752"/>
-      <c r="D752" s="21" t="s">
+      <c r="D752" s="1" t="s">
         <v>830</v>
       </c>
       <c r="E752" s="1"/>
@@ -46284,7 +46283,7 @@
         <v>1973</v>
       </c>
       <c r="B753"/>
-      <c r="D753" s="21" t="s">
+      <c r="D753" s="1" t="s">
         <v>929</v>
       </c>
       <c r="E753" s="1"/>
@@ -46297,7 +46296,7 @@
         <v>1974</v>
       </c>
       <c r="B754"/>
-      <c r="D754" s="21" t="s">
+      <c r="D754" s="1" t="s">
         <v>930</v>
       </c>
       <c r="E754" s="1"/>
@@ -46310,7 +46309,7 @@
         <v>1975</v>
       </c>
       <c r="B755"/>
-      <c r="D755" s="21" t="s">
+      <c r="D755" s="1" t="s">
         <v>875</v>
       </c>
       <c r="E755" s="1"/>
@@ -46323,7 +46322,7 @@
         <v>1976</v>
       </c>
       <c r="B756"/>
-      <c r="D756" s="21" t="s">
+      <c r="D756" s="1" t="s">
         <v>931</v>
       </c>
       <c r="E756" s="1"/>
@@ -46338,7 +46337,7 @@
       <c r="B757" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="D757" s="21" t="s">
+      <c r="D757" s="1" t="s">
         <v>933</v>
       </c>
       <c r="E757" s="1" t="s">
@@ -46353,7 +46352,7 @@
         <v>1978</v>
       </c>
       <c r="B758"/>
-      <c r="D758" s="21" t="s">
+      <c r="D758" s="1" t="s">
         <v>934</v>
       </c>
       <c r="E758" s="1"/>
@@ -46369,7 +46368,7 @@
         <v>1979</v>
       </c>
       <c r="B759"/>
-      <c r="D759" s="21" t="s">
+      <c r="D759" s="1" t="s">
         <v>936</v>
       </c>
       <c r="E759" s="1"/>
@@ -46387,7 +46386,7 @@
       <c r="B760" t="s">
         <v>3140</v>
       </c>
-      <c r="D760" s="21" t="s">
+      <c r="D760" s="1" t="s">
         <v>937</v>
       </c>
       <c r="E760" s="1"/>
@@ -46402,7 +46401,7 @@
       <c r="B761" t="s">
         <v>3140</v>
       </c>
-      <c r="D761" s="21" t="s">
+      <c r="D761" s="1" t="s">
         <v>938</v>
       </c>
       <c r="E761" s="1"/>
@@ -46417,7 +46416,7 @@
       <c r="B762" t="s">
         <v>3140</v>
       </c>
-      <c r="D762" s="21" t="s">
+      <c r="D762" s="1" t="s">
         <v>939</v>
       </c>
       <c r="E762" s="1"/>
@@ -46432,7 +46431,7 @@
       <c r="B763" t="s">
         <v>3140</v>
       </c>
-      <c r="D763" s="21" t="s">
+      <c r="D763" s="1" t="s">
         <v>940</v>
       </c>
       <c r="E763" s="1"/>
@@ -46445,7 +46444,7 @@
         <v>1984</v>
       </c>
       <c r="B764"/>
-      <c r="D764" s="21" t="s">
+      <c r="D764" s="1" t="s">
         <v>941</v>
       </c>
       <c r="E764" s="1"/>
@@ -46458,7 +46457,7 @@
         <v>1985</v>
       </c>
       <c r="B765"/>
-      <c r="D765" s="21" t="s">
+      <c r="D765" s="1" t="s">
         <v>942</v>
       </c>
       <c r="E765" s="1"/>
@@ -46471,7 +46470,7 @@
         <v>1986</v>
       </c>
       <c r="B766"/>
-      <c r="D766" s="21" t="s">
+      <c r="D766" s="1" t="s">
         <v>943</v>
       </c>
       <c r="E766" s="1"/>
@@ -46484,14 +46483,14 @@
         <v>1987</v>
       </c>
       <c r="B767"/>
-      <c r="D767" s="21" t="s">
+      <c r="D767" s="1" t="s">
         <v>944</v>
       </c>
       <c r="E767" s="1"/>
       <c r="I767" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="L767" s="1" t="s">
+      <c r="L767" s="21" t="s">
         <v>810</v>
       </c>
     </row>
@@ -46500,7 +46499,7 @@
         <v>1988</v>
       </c>
       <c r="B768"/>
-      <c r="D768" s="21" t="s">
+      <c r="D768" s="1" t="s">
         <v>965</v>
       </c>
       <c r="E768" s="1"/>
@@ -46531,7 +46530,7 @@
         <v>1990</v>
       </c>
       <c r="B770"/>
-      <c r="D770" s="21" t="s">
+      <c r="D770" s="1" t="s">
         <v>967</v>
       </c>
       <c r="E770" s="1"/>
@@ -46598,7 +46597,7 @@
         <v>1994</v>
       </c>
       <c r="B774"/>
-      <c r="D774" s="21" t="s">
+      <c r="D774" s="1" t="s">
         <v>972</v>
       </c>
       <c r="E774" s="1"/>
@@ -46611,7 +46610,7 @@
         <v>1995</v>
       </c>
       <c r="B775"/>
-      <c r="D775" s="21" t="s">
+      <c r="D775" s="1" t="s">
         <v>979</v>
       </c>
       <c r="E775" s="1"/>
@@ -46627,7 +46626,7 @@
         <v>1996</v>
       </c>
       <c r="B776"/>
-      <c r="D776" s="21" t="s">
+      <c r="D776" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E776" s="1"/>
@@ -46661,7 +46660,7 @@
         <v>1998</v>
       </c>
       <c r="B778"/>
-      <c r="D778" s="21" t="s">
+      <c r="D778" s="1" t="s">
         <v>984</v>
       </c>
       <c r="E778" s="1"/>
@@ -46680,7 +46679,7 @@
         <v>1999</v>
       </c>
       <c r="B779"/>
-      <c r="D779" s="21" t="s">
+      <c r="D779" s="1" t="s">
         <v>985</v>
       </c>
       <c r="E779" s="1"/>
@@ -46699,7 +46698,7 @@
         <v>2000</v>
       </c>
       <c r="B780"/>
-      <c r="D780" s="21" t="s">
+      <c r="D780" s="1" t="s">
         <v>986</v>
       </c>
       <c r="E780" s="1"/>
@@ -46714,14 +46713,14 @@
       <c r="B781" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="D781" s="21" t="s">
+      <c r="D781" s="1" t="s">
         <v>987</v>
       </c>
       <c r="E781" s="1"/>
       <c r="G781" t="s">
         <v>989</v>
       </c>
-      <c r="L781" s="21" t="s">
+      <c r="L781" s="1" t="s">
         <v>988</v>
       </c>
     </row>
@@ -46732,11 +46731,11 @@
       <c r="B782" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="D782" s="21" t="s">
+      <c r="D782" s="1" t="s">
         <v>991</v>
       </c>
       <c r="E782" s="1"/>
-      <c r="L782" s="21" t="s">
+      <c r="L782" s="1" t="s">
         <v>988</v>
       </c>
     </row>
@@ -46775,7 +46774,7 @@
         <v>2005</v>
       </c>
       <c r="B785"/>
-      <c r="D785" s="21" t="s">
+      <c r="D785" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="E785" s="1"/>
@@ -46788,7 +46787,7 @@
         <v>2006</v>
       </c>
       <c r="B786"/>
-      <c r="D786" s="21" t="s">
+      <c r="D786" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="E786" s="1"/>
@@ -46800,7 +46799,7 @@
       <c r="A787" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="D787" s="21" t="s">
+      <c r="D787" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="E787" s="1"/>
@@ -46813,7 +46812,7 @@
         <v>2008</v>
       </c>
       <c r="B788"/>
-      <c r="D788" s="21" t="s">
+      <c r="D788" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="E788" s="1"/>
@@ -46826,7 +46825,7 @@
         <v>2009</v>
       </c>
       <c r="B789"/>
-      <c r="D789" s="21" t="s">
+      <c r="D789" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="E789" s="1"/>
@@ -47184,7 +47183,7 @@
         <v>1046</v>
       </c>
       <c r="E815" s="1"/>
-      <c r="L815" s="21" t="s">
+      <c r="L815" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -47199,7 +47198,7 @@
         <v>1047</v>
       </c>
       <c r="E816" s="1"/>
-      <c r="L816" s="21" t="s">
+      <c r="L816" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -47214,7 +47213,7 @@
         <v>1048</v>
       </c>
       <c r="E817" s="1"/>
-      <c r="L817" s="21" t="s">
+      <c r="L817" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -48478,7 +48477,7 @@
         <v>1164</v>
       </c>
       <c r="E911" s="1"/>
-      <c r="L911" s="1" t="s">
+      <c r="L911" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48493,7 +48492,7 @@
         <v>1165</v>
       </c>
       <c r="E912" s="1"/>
-      <c r="L912" s="1" t="s">
+      <c r="L912" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48508,7 +48507,7 @@
         <v>1166</v>
       </c>
       <c r="E913" s="1"/>
-      <c r="L913" s="1" t="s">
+      <c r="L913" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48523,7 +48522,7 @@
         <v>1167</v>
       </c>
       <c r="E914" s="1"/>
-      <c r="L914" s="1" t="s">
+      <c r="L914" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48536,7 +48535,7 @@
         <v>708</v>
       </c>
       <c r="E915" s="1"/>
-      <c r="L915" s="1" t="s">
+      <c r="L915" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48551,7 +48550,7 @@
         <v>1168</v>
       </c>
       <c r="E916" s="1"/>
-      <c r="L916" s="1" t="s">
+      <c r="L916" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48564,7 +48563,7 @@
         <v>1169</v>
       </c>
       <c r="E917" s="1"/>
-      <c r="L917" s="1" t="s">
+      <c r="L917" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48577,7 +48576,7 @@
         <v>1170</v>
       </c>
       <c r="E918" s="1"/>
-      <c r="L918" s="1" t="s">
+      <c r="L918" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48589,7 +48588,7 @@
         <v>1171</v>
       </c>
       <c r="E919" s="1"/>
-      <c r="L919" s="1" t="s">
+      <c r="L919" s="21" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -48632,7 +48631,7 @@
         <v>1177</v>
       </c>
       <c r="E922" s="1"/>
-      <c r="L922" s="1" t="s">
+      <c r="L922" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48647,7 +48646,7 @@
         <v>1178</v>
       </c>
       <c r="E923" s="1"/>
-      <c r="L923" s="1" t="s">
+      <c r="L923" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48766,7 +48765,7 @@
         <v>244</v>
       </c>
       <c r="E932" s="1"/>
-      <c r="L932" s="1" t="s">
+      <c r="L932" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48781,7 +48780,7 @@
         <v>1187</v>
       </c>
       <c r="E933" s="1"/>
-      <c r="L933" s="1" t="s">
+      <c r="L933" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48796,7 +48795,7 @@
         <v>1188</v>
       </c>
       <c r="E934" s="1"/>
-      <c r="L934" s="1" t="s">
+      <c r="L934" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48811,7 +48810,7 @@
         <v>1189</v>
       </c>
       <c r="E935" s="1"/>
-      <c r="L935" s="1" t="s">
+      <c r="L935" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48878,7 +48877,7 @@
         <v>890</v>
       </c>
       <c r="E940" s="1"/>
-      <c r="L940" s="1" t="s">
+      <c r="L940" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48893,7 +48892,7 @@
         <v>19</v>
       </c>
       <c r="E941" s="1"/>
-      <c r="L941" s="1" t="s">
+      <c r="L941" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -48921,7 +48920,7 @@
         <v>1195</v>
       </c>
       <c r="E943" s="1"/>
-      <c r="L943" s="1" t="s">
+      <c r="L943" s="21" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -50304,7 +50303,7 @@
         <v>2361</v>
       </c>
       <c r="B1036"/>
-      <c r="D1036" s="1" t="s">
+      <c r="D1036" s="21" t="s">
         <v>2332</v>
       </c>
       <c r="E1036" s="1"/>
@@ -50317,7 +50316,7 @@
         <v>2362</v>
       </c>
       <c r="B1037"/>
-      <c r="D1037" s="1" t="s">
+      <c r="D1037" s="21" t="s">
         <v>2333</v>
       </c>
       <c r="E1037" s="1"/>
@@ -50333,7 +50332,7 @@
       <c r="C1038" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="D1038" s="1" t="s">
+      <c r="D1038" s="21" t="s">
         <v>2334</v>
       </c>
       <c r="E1038" s="1"/>
@@ -50346,7 +50345,7 @@
         <v>2364</v>
       </c>
       <c r="B1039"/>
-      <c r="D1039" s="1" t="s">
+      <c r="D1039" s="21" t="s">
         <v>2335</v>
       </c>
       <c r="E1039" s="1"/>
@@ -50359,7 +50358,7 @@
         <v>2365</v>
       </c>
       <c r="B1040"/>
-      <c r="D1040" s="1" t="s">
+      <c r="D1040" s="21" t="s">
         <v>2337</v>
       </c>
       <c r="E1040" s="1"/>
@@ -50372,7 +50371,7 @@
         <v>2366</v>
       </c>
       <c r="B1041"/>
-      <c r="D1041" s="1" t="s">
+      <c r="D1041" s="21" t="s">
         <v>2338</v>
       </c>
       <c r="E1041" s="1"/>
@@ -50385,7 +50384,7 @@
         <v>2367</v>
       </c>
       <c r="B1042"/>
-      <c r="D1042" s="1" t="s">
+      <c r="D1042" s="21" t="s">
         <v>2339</v>
       </c>
       <c r="E1042" s="1"/>
@@ -50412,7 +50411,7 @@
       <c r="A1044" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="D1044" s="1" t="s">
+      <c r="D1044" s="21" t="s">
         <v>2343</v>
       </c>
       <c r="E1044" s="1"/>
@@ -50425,7 +50424,7 @@
         <v>2370</v>
       </c>
       <c r="B1045"/>
-      <c r="D1045" s="1" t="s">
+      <c r="D1045" s="21" t="s">
         <v>2344</v>
       </c>
       <c r="E1045" s="1"/>
@@ -50438,11 +50437,11 @@
         <v>2371</v>
       </c>
       <c r="B1046"/>
-      <c r="D1046" s="1" t="s">
+      <c r="D1046" s="21" t="s">
         <v>2479</v>
       </c>
       <c r="E1046" s="1"/>
-      <c r="L1046" s="1" t="s">
+      <c r="L1046" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50481,11 +50480,11 @@
         <v>2374</v>
       </c>
       <c r="B1049"/>
-      <c r="D1049" s="1" t="s">
+      <c r="D1049" s="21" t="s">
         <v>490</v>
       </c>
       <c r="E1049" s="1"/>
-      <c r="L1049" s="1" t="s">
+      <c r="L1049" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50494,11 +50493,11 @@
         <v>2375</v>
       </c>
       <c r="B1050"/>
-      <c r="D1050" s="1" t="s">
+      <c r="D1050" s="21" t="s">
         <v>2345</v>
       </c>
       <c r="E1050" s="1"/>
-      <c r="L1050" s="1" t="s">
+      <c r="L1050" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50507,11 +50506,11 @@
         <v>2376</v>
       </c>
       <c r="B1051"/>
-      <c r="D1051" s="1" t="s">
+      <c r="D1051" s="21" t="s">
         <v>2346</v>
       </c>
       <c r="E1051" s="1"/>
-      <c r="L1051" s="1" t="s">
+      <c r="L1051" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50520,11 +50519,11 @@
         <v>2422</v>
       </c>
       <c r="B1052"/>
-      <c r="D1052" s="1" t="s">
+      <c r="D1052" s="21" t="s">
         <v>2377</v>
       </c>
       <c r="E1052" s="1"/>
-      <c r="L1052" s="1" t="s">
+      <c r="L1052" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50533,14 +50532,14 @@
         <v>2423</v>
       </c>
       <c r="B1053"/>
-      <c r="D1053" s="1" t="s">
+      <c r="D1053" s="21" t="s">
         <v>2378</v>
       </c>
       <c r="E1053" s="1"/>
       <c r="G1053" t="s">
         <v>2379</v>
       </c>
-      <c r="L1053" s="1" t="s">
+      <c r="L1053" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50549,11 +50548,11 @@
         <v>2424</v>
       </c>
       <c r="B1054"/>
-      <c r="D1054" s="1" t="s">
+      <c r="D1054" s="21" t="s">
         <v>2380</v>
       </c>
       <c r="E1054" s="1"/>
-      <c r="L1054" s="1" t="s">
+      <c r="L1054" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50562,11 +50561,11 @@
         <v>2425</v>
       </c>
       <c r="B1055"/>
-      <c r="D1055" s="1" t="s">
+      <c r="D1055" s="21" t="s">
         <v>1146</v>
       </c>
       <c r="E1055" s="1"/>
-      <c r="L1055" s="1" t="s">
+      <c r="L1055" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50605,11 +50604,11 @@
         <v>2428</v>
       </c>
       <c r="B1058"/>
-      <c r="D1058" s="1" t="s">
+      <c r="D1058" s="21" t="s">
         <v>1143</v>
       </c>
       <c r="E1058" s="1"/>
-      <c r="L1058" s="1" t="s">
+      <c r="L1058" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50618,11 +50617,11 @@
         <v>2429</v>
       </c>
       <c r="B1059"/>
-      <c r="D1059" s="1" t="s">
+      <c r="D1059" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="E1059" s="1"/>
-      <c r="L1059" s="1" t="s">
+      <c r="L1059" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50631,11 +50630,11 @@
         <v>2430</v>
       </c>
       <c r="B1060"/>
-      <c r="D1060" s="1" t="s">
+      <c r="D1060" s="21" t="s">
         <v>1003</v>
       </c>
       <c r="E1060" s="1"/>
-      <c r="L1060" s="1" t="s">
+      <c r="L1060" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50647,11 +50646,11 @@
       <c r="C1061" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="D1061" s="1" t="s">
+      <c r="D1061" s="21" t="s">
         <v>2388</v>
       </c>
       <c r="E1061" s="1"/>
-      <c r="L1061" s="1" t="s">
+      <c r="L1061" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50660,11 +50659,11 @@
         <v>2432</v>
       </c>
       <c r="B1062"/>
-      <c r="D1062" s="1" t="s">
+      <c r="D1062" s="21" t="s">
         <v>2390</v>
       </c>
       <c r="E1062" s="1"/>
-      <c r="L1062" s="1" t="s">
+      <c r="L1062" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50673,11 +50672,11 @@
         <v>2433</v>
       </c>
       <c r="B1063"/>
-      <c r="D1063" s="1" t="s">
+      <c r="D1063" s="21" t="s">
         <v>2391</v>
       </c>
       <c r="E1063" s="1"/>
-      <c r="L1063" s="1" t="s">
+      <c r="L1063" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50686,11 +50685,11 @@
         <v>2434</v>
       </c>
       <c r="B1064"/>
-      <c r="D1064" s="1" t="s">
+      <c r="D1064" s="21" t="s">
         <v>2392</v>
       </c>
       <c r="E1064" s="1"/>
-      <c r="L1064" s="1" t="s">
+      <c r="L1064" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50699,11 +50698,11 @@
         <v>2435</v>
       </c>
       <c r="B1065"/>
-      <c r="D1065" s="1" t="s">
+      <c r="D1065" s="21" t="s">
         <v>2393</v>
       </c>
       <c r="E1065" s="1"/>
-      <c r="L1065" s="1" t="s">
+      <c r="L1065" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50712,11 +50711,11 @@
         <v>2436</v>
       </c>
       <c r="B1066"/>
-      <c r="D1066" s="1" t="s">
+      <c r="D1066" s="21" t="s">
         <v>2394</v>
       </c>
       <c r="E1066" s="1"/>
-      <c r="L1066" s="1" t="s">
+      <c r="L1066" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50725,11 +50724,11 @@
         <v>2437</v>
       </c>
       <c r="B1067"/>
-      <c r="D1067" s="1" t="s">
+      <c r="D1067" s="21" t="s">
         <v>2395</v>
       </c>
       <c r="E1067" s="1"/>
-      <c r="L1067" s="1" t="s">
+      <c r="L1067" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50741,11 +50740,11 @@
       <c r="C1068" s="1" t="s">
         <v>2179</v>
       </c>
-      <c r="D1068" s="1" t="s">
+      <c r="D1068" s="21" t="s">
         <v>2399</v>
       </c>
       <c r="E1068" s="1"/>
-      <c r="L1068" s="1" t="s">
+      <c r="L1068" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50757,11 +50756,11 @@
       <c r="C1069" s="1" t="s">
         <v>2179</v>
       </c>
-      <c r="D1069" s="1" t="s">
+      <c r="D1069" s="21" t="s">
         <v>2400</v>
       </c>
       <c r="E1069" s="1"/>
-      <c r="L1069" s="1" t="s">
+      <c r="L1069" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -50890,11 +50889,11 @@
         <v>2448</v>
       </c>
       <c r="B1078"/>
-      <c r="D1078" s="1" t="s">
+      <c r="D1078" s="21" t="s">
         <v>2410</v>
       </c>
       <c r="E1078" s="1"/>
-      <c r="L1078" s="1" t="s">
+      <c r="L1078" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51038,11 +51037,11 @@
         <v>2458</v>
       </c>
       <c r="B1088"/>
-      <c r="D1088" s="1" t="s">
+      <c r="D1088" s="21" t="s">
         <v>2421</v>
       </c>
       <c r="E1088" s="1"/>
-      <c r="L1088" s="1" t="s">
+      <c r="L1088" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51051,11 +51050,11 @@
         <v>2469</v>
       </c>
       <c r="B1089"/>
-      <c r="D1089" s="1" t="s">
+      <c r="D1089" s="21" t="s">
         <v>2459</v>
       </c>
       <c r="E1089" s="1"/>
-      <c r="L1089" s="1" t="s">
+      <c r="L1089" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51064,11 +51063,11 @@
         <v>2470</v>
       </c>
       <c r="B1090"/>
-      <c r="D1090" s="1" t="s">
+      <c r="D1090" s="21" t="s">
         <v>2460</v>
       </c>
       <c r="E1090" s="1"/>
-      <c r="L1090" s="1" t="s">
+      <c r="L1090" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51098,7 +51097,7 @@
         <v>2462</v>
       </c>
       <c r="E1092" s="1"/>
-      <c r="L1092" s="1" t="s">
+      <c r="L1092" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51137,11 +51136,11 @@
         <v>2475</v>
       </c>
       <c r="B1095"/>
-      <c r="D1095" s="1" t="s">
+      <c r="D1095" s="21" t="s">
         <v>2465</v>
       </c>
       <c r="E1095" s="1"/>
-      <c r="L1095" s="1" t="s">
+      <c r="L1095" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51150,11 +51149,11 @@
         <v>2476</v>
       </c>
       <c r="B1096"/>
-      <c r="D1096" s="1" t="s">
+      <c r="D1096" s="21" t="s">
         <v>2466</v>
       </c>
       <c r="E1096" s="1"/>
-      <c r="L1096" s="1" t="s">
+      <c r="L1096" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51163,11 +51162,11 @@
         <v>2477</v>
       </c>
       <c r="B1097"/>
-      <c r="D1097" s="1" t="s">
+      <c r="D1097" s="21" t="s">
         <v>2467</v>
       </c>
       <c r="E1097" s="1"/>
-      <c r="L1097" s="1" t="s">
+      <c r="L1097" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51180,7 +51179,7 @@
         <v>2468</v>
       </c>
       <c r="E1098" s="1"/>
-      <c r="L1098" s="1" t="s">
+      <c r="L1098" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51208,7 +51207,7 @@
         <v>2481</v>
       </c>
       <c r="E1100" s="1"/>
-      <c r="L1100" s="1" t="s">
+      <c r="L1100" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51221,7 +51220,7 @@
         <v>2482</v>
       </c>
       <c r="E1101" s="1"/>
-      <c r="L1101" s="1" t="s">
+      <c r="L1101" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51234,7 +51233,7 @@
         <v>718</v>
       </c>
       <c r="E1102" s="1"/>
-      <c r="L1102" s="1" t="s">
+      <c r="L1102" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -51247,7 +51246,7 @@
         <v>2487</v>
       </c>
       <c r="E1103" s="1"/>
-      <c r="L1103" s="1" t="s">
+      <c r="L1103" s="21" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -52234,7 +52233,7 @@
       <c r="B1164" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="D1164" s="21" t="s">
+      <c r="D1164" s="1" t="s">
         <v>2631</v>
       </c>
       <c r="E1164" s="1" t="s">
@@ -53105,7 +53104,7 @@
       <c r="B1224" t="s">
         <v>3126</v>
       </c>
-      <c r="D1224" s="1" t="s">
+      <c r="D1224" s="21" t="s">
         <v>156</v>
       </c>
       <c r="E1224" s="1"/>
@@ -53120,7 +53119,7 @@
       <c r="B1225" t="s">
         <v>3126</v>
       </c>
-      <c r="D1225" s="1" t="s">
+      <c r="D1225" s="21" t="s">
         <v>160</v>
       </c>
       <c r="E1225" s="1"/>
@@ -53135,7 +53134,7 @@
       <c r="B1226" t="s">
         <v>3126</v>
       </c>
-      <c r="D1226" s="1" t="s">
+      <c r="D1226" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E1226" s="1"/>
@@ -53210,7 +53209,7 @@
       <c r="B1231" t="s">
         <v>3126</v>
       </c>
-      <c r="D1231" s="1" t="s">
+      <c r="D1231" s="21" t="s">
         <v>158</v>
       </c>
       <c r="E1231" s="1"/>
@@ -53451,7 +53450,7 @@
       <c r="B1248" s="1" t="s">
         <v>3141</v>
       </c>
-      <c r="D1248" s="21" t="s">
+      <c r="D1248" s="1" t="s">
         <v>2800</v>
       </c>
       <c r="E1248" s="1"/>
@@ -53563,7 +53562,7 @@
       <c r="B1256" s="1" t="s">
         <v>3141</v>
       </c>
-      <c r="D1256" s="21" t="s">
+      <c r="D1256" s="1" t="s">
         <v>2820</v>
       </c>
       <c r="E1256" s="1"/>
@@ -53621,7 +53620,7 @@
       <c r="B1260" t="s">
         <v>3126</v>
       </c>
-      <c r="D1260" s="1" t="s">
+      <c r="D1260" s="21" t="s">
         <v>158</v>
       </c>
       <c r="E1260" s="1" t="s">
@@ -53638,7 +53637,7 @@
       <c r="B1261" t="s">
         <v>3126</v>
       </c>
-      <c r="D1261" s="1" t="s">
+      <c r="D1261" s="21" t="s">
         <v>160</v>
       </c>
       <c r="E1261" s="1" t="s">
@@ -53659,7 +53658,7 @@
       <c r="E1262" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="L1262" s="1" t="s">
+      <c r="L1262" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53691,7 +53690,7 @@
       <c r="E1264" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="L1264" s="1" t="s">
+      <c r="L1264" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53706,7 +53705,7 @@
       <c r="E1265" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="L1265" s="1" t="s">
+      <c r="L1265" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53717,7 +53716,7 @@
       <c r="B1266" t="s">
         <v>3126</v>
       </c>
-      <c r="D1266" s="1" t="s">
+      <c r="D1266" s="21" t="s">
         <v>156</v>
       </c>
       <c r="E1266" s="1" t="s">
@@ -53734,7 +53733,7 @@
       <c r="B1267" t="s">
         <v>3126</v>
       </c>
-      <c r="D1267" s="1" t="s">
+      <c r="D1267" s="21" t="s">
         <v>2825</v>
       </c>
       <c r="E1267" s="1" t="s">
@@ -53751,7 +53750,7 @@
       <c r="B1268" t="s">
         <v>3126</v>
       </c>
-      <c r="D1268" s="1" t="s">
+      <c r="D1268" s="21" t="s">
         <v>2826</v>
       </c>
       <c r="E1268" s="1" t="s">
@@ -53768,7 +53767,7 @@
       <c r="B1269" t="s">
         <v>3126</v>
       </c>
-      <c r="D1269" s="1" t="s">
+      <c r="D1269" s="21" t="s">
         <v>2827</v>
       </c>
       <c r="E1269" s="1" t="s">
@@ -53785,7 +53784,7 @@
       <c r="B1270" t="s">
         <v>3126</v>
       </c>
-      <c r="D1270" s="1" t="s">
+      <c r="D1270" s="21" t="s">
         <v>2828</v>
       </c>
       <c r="E1270" s="1" t="s">
@@ -53802,7 +53801,7 @@
       <c r="B1271" s="1" t="s">
         <v>3141</v>
       </c>
-      <c r="D1271" s="21" t="s">
+      <c r="D1271" s="1" t="s">
         <v>2829</v>
       </c>
       <c r="E1271" s="1"/>
@@ -53818,7 +53817,7 @@
         <v>2830</v>
       </c>
       <c r="E1272" s="1"/>
-      <c r="L1272" s="1" t="s">
+      <c r="L1272" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53830,7 +53829,7 @@
         <v>2831</v>
       </c>
       <c r="E1273" s="1"/>
-      <c r="L1273" s="1" t="s">
+      <c r="L1273" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53842,7 +53841,7 @@
         <v>2832</v>
       </c>
       <c r="E1274" s="1"/>
-      <c r="L1274" s="1" t="s">
+      <c r="L1274" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53857,7 +53856,7 @@
       <c r="E1275" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="L1275" s="1" t="s">
+      <c r="L1275" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53872,7 +53871,7 @@
       <c r="E1276" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="L1276" s="1" t="s">
+      <c r="L1276" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53887,7 +53886,7 @@
       <c r="E1277" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="L1277" s="1" t="s">
+      <c r="L1277" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53902,7 +53901,7 @@
       <c r="E1278" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="L1278" s="1" t="s">
+      <c r="L1278" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53916,7 +53915,7 @@
       <c r="E1279" s="18" t="s">
         <v>2716</v>
       </c>
-      <c r="L1279" s="1" t="s">
+      <c r="L1279" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53931,7 +53930,7 @@
       <c r="E1280" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L1280" s="1" t="s">
+      <c r="L1280" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53944,7 +53943,7 @@
         <v>2868</v>
       </c>
       <c r="E1281" s="1"/>
-      <c r="L1281" s="1" t="s">
+      <c r="L1281" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53957,7 +53956,7 @@
         <v>2869</v>
       </c>
       <c r="E1282" s="1"/>
-      <c r="L1282" s="1" t="s">
+      <c r="L1282" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53972,7 +53971,7 @@
       <c r="E1283" s="1" t="s">
         <v>2875</v>
       </c>
-      <c r="L1283" s="1" t="s">
+      <c r="L1283" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -53984,7 +53983,7 @@
         <v>2887</v>
       </c>
       <c r="E1284" s="1"/>
-      <c r="L1284" s="1" t="s">
+      <c r="L1284" s="21" t="s">
         <v>2821</v>
       </c>
     </row>
@@ -54275,7 +54274,7 @@
       <c r="C1306" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="D1306" s="1" t="s">
+      <c r="D1306" s="21" t="s">
         <v>2912</v>
       </c>
       <c r="E1306" s="1"/>
@@ -54293,7 +54292,7 @@
       <c r="C1307" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="D1307" s="1" t="s">
+      <c r="D1307" s="21" t="s">
         <v>2913</v>
       </c>
       <c r="E1307" s="1"/>
@@ -54739,7 +54738,7 @@
       <c r="E1338" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="L1338" s="1" t="s">
+      <c r="L1338" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54771,7 +54770,7 @@
       <c r="E1340" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="L1340" s="1" t="s">
+      <c r="L1340" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54784,7 +54783,7 @@
         <v>3002</v>
       </c>
       <c r="E1341" s="1"/>
-      <c r="L1341" s="1" t="s">
+      <c r="L1341" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54797,7 +54796,7 @@
         <v>246</v>
       </c>
       <c r="E1342" s="1"/>
-      <c r="L1342" s="1" t="s">
+      <c r="L1342" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54917,7 +54916,7 @@
       <c r="E1350" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="L1350" s="1" t="s">
+      <c r="L1350" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54932,7 +54931,7 @@
       <c r="E1351" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="L1351" s="1" t="s">
+      <c r="L1351" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54947,7 +54946,7 @@
       <c r="E1352" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="L1352" s="1" t="s">
+      <c r="L1352" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54962,7 +54961,7 @@
       <c r="E1353" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="L1353" s="1" t="s">
+      <c r="L1353" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54977,7 +54976,7 @@
       <c r="E1354" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="L1354" s="1" t="s">
+      <c r="L1354" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -54992,7 +54991,7 @@
       <c r="E1355" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="L1355" s="1" t="s">
+      <c r="L1355" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55007,7 +55006,7 @@
       <c r="E1356" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="L1356" s="1" t="s">
+      <c r="L1356" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55020,7 +55019,7 @@
         <v>3033</v>
       </c>
       <c r="E1357" s="1"/>
-      <c r="L1357" s="1" t="s">
+      <c r="L1357" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55033,7 +55032,7 @@
         <v>3034</v>
       </c>
       <c r="E1358" s="1"/>
-      <c r="L1358" s="1" t="s">
+      <c r="L1358" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55046,7 +55045,7 @@
         <v>3035</v>
       </c>
       <c r="E1359" s="1"/>
-      <c r="L1359" s="1" t="s">
+      <c r="L1359" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55061,7 +55060,7 @@
       <c r="E1360" s="1" t="s">
         <v>3037</v>
       </c>
-      <c r="L1360" s="1" t="s">
+      <c r="L1360" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55089,7 +55088,7 @@
         <v>3061</v>
       </c>
       <c r="E1362" s="1"/>
-      <c r="L1362" s="1" t="s">
+      <c r="L1362" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55102,7 +55101,7 @@
         <v>3062</v>
       </c>
       <c r="E1363" s="1"/>
-      <c r="L1363" s="1" t="s">
+      <c r="L1363" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55115,7 +55114,7 @@
         <v>3063</v>
       </c>
       <c r="E1364" s="1"/>
-      <c r="L1364" s="1" t="s">
+      <c r="L1364" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55128,7 +55127,7 @@
         <v>3064</v>
       </c>
       <c r="E1365" s="1"/>
-      <c r="L1365" s="1" t="s">
+      <c r="L1365" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -55550,8 +55549,7 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22">
+      <c r="C4">
         <v>11</v>
       </c>
     </row>
@@ -55559,10 +55557,10 @@
       <c r="A5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5">
         <v>7</v>
       </c>
     </row>
@@ -55570,8 +55568,7 @@
       <c r="A6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
@@ -55579,8 +55576,7 @@
       <c r="A7" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
+      <c r="C7">
         <v>3</v>
       </c>
     </row>
@@ -55588,8 +55584,7 @@
       <c r="A8" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>7</v>
       </c>
     </row>
@@ -55597,8 +55592,7 @@
       <c r="A9" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22">
+      <c r="C9">
         <v>10</v>
       </c>
     </row>
@@ -55606,8 +55600,7 @@
       <c r="A10" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -55615,8 +55608,7 @@
       <c r="A11" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
@@ -55624,8 +55616,7 @@
       <c r="A12" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>11</v>
       </c>
     </row>
@@ -55633,8 +55624,7 @@
       <c r="A13" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22">
+      <c r="C13">
         <v>21</v>
       </c>
     </row>
@@ -55642,8 +55632,7 @@
       <c r="A14" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22">
+      <c r="C14">
         <v>5</v>
       </c>
     </row>
@@ -55651,8 +55640,7 @@
       <c r="A15" s="3" t="s">
         <v>2184</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22">
+      <c r="C15">
         <v>8</v>
       </c>
     </row>
@@ -55660,8 +55648,7 @@
       <c r="A16" s="3" t="s">
         <v>2490</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>7</v>
       </c>
     </row>
@@ -55669,8 +55656,7 @@
       <c r="A17" s="3" t="s">
         <v>2620</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22">
+      <c r="C17">
         <v>4</v>
       </c>
     </row>
@@ -55678,8 +55664,7 @@
       <c r="A18" s="3" t="s">
         <v>2707</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22">
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
@@ -55687,8 +55672,7 @@
       <c r="A19" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22">
+      <c r="C19">
         <v>11</v>
       </c>
     </row>
@@ -55696,10 +55680,10 @@
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20">
         <v>109</v>
       </c>
     </row>
@@ -55737,8 +55721,7 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22">
+      <c r="C4">
         <v>14</v>
       </c>
     </row>
@@ -55746,8 +55729,7 @@
       <c r="A5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22">
+      <c r="C5">
         <v>12</v>
       </c>
     </row>
@@ -55755,8 +55737,7 @@
       <c r="A6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>8</v>
       </c>
     </row>
@@ -55764,8 +55745,7 @@
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
+      <c r="C7">
         <v>17</v>
       </c>
     </row>
@@ -55773,8 +55753,7 @@
       <c r="A8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>6</v>
       </c>
     </row>
@@ -55782,8 +55761,7 @@
       <c r="A9" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22">
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
@@ -55791,8 +55769,7 @@
       <c r="A10" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>15</v>
       </c>
     </row>
@@ -55800,8 +55777,7 @@
       <c r="A11" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>8</v>
       </c>
     </row>
@@ -55809,8 +55785,7 @@
       <c r="A12" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>6</v>
       </c>
     </row>
@@ -55818,8 +55793,7 @@
       <c r="A13" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22">
+      <c r="C13">
         <v>2</v>
       </c>
     </row>
@@ -55827,8 +55801,7 @@
       <c r="A14" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
@@ -55836,8 +55809,7 @@
       <c r="A15" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22">
+      <c r="C15">
         <v>3</v>
       </c>
     </row>
@@ -55845,8 +55817,7 @@
       <c r="A16" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>3</v>
       </c>
     </row>
@@ -55854,8 +55825,7 @@
       <c r="A17" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22">
+      <c r="C17">
         <v>6</v>
       </c>
     </row>
@@ -55863,8 +55833,7 @@
       <c r="A18" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22">
+      <c r="C18">
         <v>3</v>
       </c>
     </row>
@@ -55872,8 +55841,7 @@
       <c r="A19" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22">
+      <c r="C19">
         <v>10</v>
       </c>
     </row>
@@ -55881,8 +55849,7 @@
       <c r="A20" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22">
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
@@ -55890,8 +55857,7 @@
       <c r="A21" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22">
+      <c r="C21">
         <v>6</v>
       </c>
     </row>
@@ -55899,8 +55865,7 @@
       <c r="A22" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22">
+      <c r="C22">
         <v>17</v>
       </c>
     </row>
@@ -55908,8 +55873,7 @@
       <c r="A23" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22">
+      <c r="C23">
         <v>16</v>
       </c>
     </row>
@@ -55917,8 +55881,7 @@
       <c r="A24" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22">
+      <c r="C24">
         <v>7</v>
       </c>
     </row>
@@ -55926,8 +55889,7 @@
       <c r="A25" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22">
+      <c r="C25">
         <v>16</v>
       </c>
     </row>
@@ -55935,8 +55897,7 @@
       <c r="A26" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22">
+      <c r="C26">
         <v>7</v>
       </c>
     </row>
@@ -55944,8 +55905,7 @@
       <c r="A27" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22">
+      <c r="C27">
         <v>12</v>
       </c>
     </row>
@@ -55953,8 +55913,7 @@
       <c r="A28" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22">
+      <c r="C28">
         <v>11</v>
       </c>
     </row>
@@ -55962,8 +55921,7 @@
       <c r="A29" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22">
+      <c r="C29">
         <v>8</v>
       </c>
     </row>
@@ -55971,8 +55929,7 @@
       <c r="A30" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22">
+      <c r="C30">
         <v>13</v>
       </c>
     </row>
@@ -55980,8 +55937,7 @@
       <c r="A31" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22">
+      <c r="C31">
         <v>7</v>
       </c>
     </row>
@@ -55989,8 +55945,7 @@
       <c r="A32" s="3" t="s">
         <v>2184</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22">
+      <c r="C32">
         <v>11</v>
       </c>
     </row>
@@ -55998,8 +55953,7 @@
       <c r="A33" s="3" t="s">
         <v>2327</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22">
+      <c r="C33">
         <v>13</v>
       </c>
     </row>
@@ -56007,8 +55961,7 @@
       <c r="A34" s="3" t="s">
         <v>2490</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22">
+      <c r="C34">
         <v>10</v>
       </c>
     </row>
@@ -56016,8 +55969,7 @@
       <c r="A35" s="3" t="s">
         <v>2620</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22">
+      <c r="C35">
         <v>4</v>
       </c>
     </row>
@@ -56025,8 +55977,7 @@
       <c r="A36" s="3" t="s">
         <v>2707</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22">
+      <c r="C36">
         <v>6</v>
       </c>
     </row>
@@ -56034,8 +55985,7 @@
       <c r="A37" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22">
+      <c r="C37">
         <v>15</v>
       </c>
     </row>
@@ -56043,8 +55993,7 @@
       <c r="A38" s="3" t="s">
         <v>3070</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22">
+      <c r="C38">
         <v>4</v>
       </c>
     </row>
@@ -56052,8 +56001,7 @@
       <c r="A39" s="3" t="s">
         <v>3109</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22">
+      <c r="C39">
         <v>5</v>
       </c>
     </row>
@@ -56061,8 +56009,7 @@
       <c r="A40" s="3" t="s">
         <v>3108</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22">
+      <c r="C40">
         <v>4</v>
       </c>
     </row>
@@ -56070,8 +56017,7 @@
       <c r="A41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22">
+      <c r="C41">
         <v>309</v>
       </c>
     </row>
@@ -62567,10 +62513,10 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4">
         <v>24</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4">
         <v>64</v>
       </c>
     </row>
@@ -62578,10 +62524,10 @@
       <c r="A5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5">
         <v>37</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5">
         <v>69</v>
       </c>
     </row>
@@ -62589,10 +62535,10 @@
       <c r="A6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6">
         <v>14</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>28</v>
       </c>
     </row>
@@ -62600,10 +62546,10 @@
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7">
         <v>14</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7">
         <v>25</v>
       </c>
     </row>
@@ -62611,10 +62557,10 @@
       <c r="A8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>32</v>
       </c>
     </row>
@@ -62622,10 +62568,10 @@
       <c r="A9" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9">
         <v>13</v>
       </c>
     </row>
@@ -62633,10 +62579,10 @@
       <c r="A10" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10">
         <v>27</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>68</v>
       </c>
     </row>
@@ -62644,10 +62590,10 @@
       <c r="A11" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>21</v>
       </c>
     </row>
@@ -62655,10 +62601,10 @@
       <c r="A12" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12">
         <v>17</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>24</v>
       </c>
     </row>
@@ -62666,10 +62612,10 @@
       <c r="A13" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13">
         <v>22</v>
       </c>
     </row>
@@ -62677,10 +62623,10 @@
       <c r="A14" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14">
         <v>15</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14">
         <v>39</v>
       </c>
     </row>
@@ -62688,10 +62634,10 @@
       <c r="A15" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15">
         <v>27</v>
       </c>
     </row>
@@ -62699,10 +62645,10 @@
       <c r="A16" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16">
         <v>18</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>58</v>
       </c>
     </row>
@@ -62710,10 +62656,10 @@
       <c r="A17" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17">
         <v>23</v>
       </c>
     </row>
@@ -62721,10 +62667,10 @@
       <c r="A18" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18">
         <v>25</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18">
         <v>50</v>
       </c>
     </row>
@@ -62732,10 +62678,10 @@
       <c r="A19" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19">
         <v>12</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19">
         <v>27</v>
       </c>
     </row>
@@ -62743,10 +62689,10 @@
       <c r="A20" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20">
         <v>31</v>
       </c>
     </row>
@@ -62754,10 +62700,10 @@
       <c r="A21" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21">
         <v>34</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21">
         <v>145</v>
       </c>
     </row>
@@ -62765,10 +62711,10 @@
       <c r="A22" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22">
         <v>7</v>
       </c>
     </row>
@@ -62776,10 +62722,10 @@
       <c r="A23" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23">
         <v>23</v>
       </c>
     </row>
@@ -62787,10 +62733,10 @@
       <c r="A24" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24">
         <v>15</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24">
         <v>62</v>
       </c>
     </row>
@@ -62798,10 +62744,10 @@
       <c r="A25" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25">
         <v>24</v>
       </c>
     </row>
@@ -62809,10 +62755,10 @@
       <c r="A26" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <v>17</v>
       </c>
     </row>
@@ -62820,10 +62766,10 @@
       <c r="A27" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <v>10</v>
       </c>
     </row>
@@ -62831,10 +62777,10 @@
       <c r="A28" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28">
         <v>9</v>
       </c>
     </row>
@@ -62842,10 +62788,10 @@
       <c r="A29" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29">
         <v>33</v>
       </c>
     </row>
@@ -62853,10 +62799,10 @@
       <c r="A30" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30">
         <v>3</v>
       </c>
     </row>
@@ -62864,10 +62810,10 @@
       <c r="A31" s="3" t="s">
         <v>2184</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31">
         <v>19</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31">
         <v>69</v>
       </c>
     </row>
@@ -62875,10 +62821,10 @@
       <c r="A32" s="3" t="s">
         <v>2327</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32">
         <v>33</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32">
         <v>79</v>
       </c>
     </row>
@@ -62886,10 +62832,10 @@
       <c r="A33" s="3" t="s">
         <v>2490</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33">
         <v>26</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33">
         <v>55</v>
       </c>
     </row>
@@ -62897,10 +62843,10 @@
       <c r="A34" s="3" t="s">
         <v>2620</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34">
         <v>21</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34">
         <v>42</v>
       </c>
     </row>
@@ -62908,10 +62854,10 @@
       <c r="A35" s="3" t="s">
         <v>2707</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35">
         <v>21</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35">
         <v>58</v>
       </c>
     </row>
@@ -62919,10 +62865,10 @@
       <c r="A36" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36">
         <v>22</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36">
         <v>74</v>
       </c>
     </row>
@@ -62930,10 +62876,10 @@
       <c r="A37" s="3" t="s">
         <v>3070</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37">
         <v>14</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37">
         <v>33</v>
       </c>
     </row>
@@ -62941,10 +62887,10 @@
       <c r="A38" s="3" t="s">
         <v>3110</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38">
         <v>9</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38">
         <v>18</v>
       </c>
     </row>
@@ -62952,10 +62898,10 @@
       <c r="A39" s="3" t="s">
         <v>3111</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39">
         <v>9</v>
       </c>
     </row>
@@ -62963,10 +62909,10 @@
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40">
         <v>530</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40">
         <v>1391</v>
       </c>
     </row>
@@ -63004,8 +62950,7 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22">
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
@@ -63013,8 +62958,7 @@
       <c r="A5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22">
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
@@ -63022,8 +62966,7 @@
       <c r="A6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
@@ -63031,8 +62974,7 @@
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
@@ -63040,8 +62982,7 @@
       <c r="A8" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
@@ -63049,8 +62990,7 @@
       <c r="A9" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -63058,8 +62998,7 @@
       <c r="A10" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -63067,8 +63006,7 @@
       <c r="A11" s="3" t="s">
         <v>2327</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>2</v>
       </c>
     </row>
@@ -63076,8 +63014,7 @@
       <c r="A12" s="3" t="s">
         <v>2620</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>4</v>
       </c>
     </row>
@@ -63085,8 +63022,7 @@
       <c r="A13" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22">
+      <c r="C13">
         <v>2</v>
       </c>
     </row>
@@ -63094,8 +63030,7 @@
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22">
+      <c r="C14">
         <v>20</v>
       </c>
     </row>
